--- a/input/onderwijsdoelen/ilearnextra/onderwijsdoelen-lager.xlsx
+++ b/input/onderwijsdoelen/ilearnextra/onderwijsdoelen-lager.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="73">
   <si>
     <t/>
   </si>
@@ -98,6 +98,170 @@
   <si>
     <t>Instruction</t>
   </si>
+  <si>
+    <t>Frans</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>De leerlingen werken aan de volgende attitudes: tonen bereidheid en durf om te luisteren, te lezen, te spreken, gesprekken te voeren en te schrijven in het Frans.</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>De leerlingen werken aan de volgende attitudes: tonen bereidheid om te streven naar taalverzorging.</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>De leerlingen werken aan de volgende attitudes: tonen belangstelling voor de aanwezigheid van moderne vreemde talen in hun leefwereld, ook buiten de school, en voor de socioculturele wereld van de taalgebruikers.</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Om bovenvermelde taaltaken uit te voeren kunnen de leerlingen de volgende lexicale en grammaticale elementen functioneel inzetten:
+a) vorm, betekenis en reëel gebruik in context van woorden en woordcombinaties uit de woordvelden die de taaltaken en de taalgebruikssituaties vereisen:
+-persoonlijke gegevens: naam, leeftijd, adres, telefoon, dichte familie, kleding, gezondheid, lichaamsdelen, uiterlijke kenmerken, huisdieren
+-dagelijks leven: huis, vrijetijdsbesteding, school, klas, de klasafspraken en -instructies, schoolmateriaal, verplaatsingen, boodschappen doen
+-relatie tot de anderen: zich voorstellen, iemand voorstellen, begroeten, bedanken, feliciteren, beleefdheidsrituelen, gevoelens uitdrukken
+-eten en drinken: wat men eet of drinkt, de maaltijden
+-tijd, ruimte, natuur: jaar, seizoenen, maanden, dagen, uuraanduidingen, tijdsmarkeerders, feesten, dieren
+-het weer
+-functiewoorden: voorzetsels en voegwoorden
+-hoeveelheidsaanduidingen: hoofdtelwoorden en frequente rangtelwoorden
+b) grammaticale constructies:
+• morfologisch domein
+• zelfstandige naamwoorden: genus, getal, overeenkomst
+• lidwoorden
+• bijvoeglijk gebruikte woordsoorten
+• bijvoeglijke naamwoorden
+• bezittelijke voornaamwoorden
+• aanwijzende voornaamwoorden
+• infinitieven
+• werkwoordsvormen en de tijdmarkeerders i.f.v. communicatie in de tegenwoordige tijd en de “futur proche”
+• zeer frequente vormen van de “passé composé”
+• syntactisch domein
+• eenvoudige bevestigende, ontkennende en vragende zinnen
+• persoonlijke voornaamwoorden als onderwerp</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>De leerlingen reflecteren over taal en taalgebruik binnen de vermelde taalgebruikssituaties om zo hun functionele en ondersteunende kennis uit te breiden.</t>
+  </si>
+  <si>
+    <t>Luisteren</t>
+  </si>
+  <si>
+    <t>Lezen</t>
+  </si>
+  <si>
+    <t>Spreken</t>
+  </si>
+  <si>
+    <t>Mondelinge interactie</t>
+  </si>
+  <si>
+    <t>Schrijven</t>
+  </si>
+  <si>
+    <t>Muzische Vorming</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>De leerlingen kunnen blijvend nieuwe dingen uit hun omgeving ontdekken.</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>De leerlingen kunnen zonder vooroordelen naar kunst kijken en luisteren.</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>De leerlingen kunnen genieten van het muzisch handelen waardoor hun expressiemogelijkheden verruimen.</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>De leerlingen kunnen vertrouwen op hun eigen expressiemogelijkheden en durven hun creatieve uitingen tonen.</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>De leerlingen kunnen respect betonen voor uitingen van leeftijdgenoten, behorend tot eigen en andere culturen.</t>
+  </si>
+  <si>
+    <t>MUZISCHE VORMING - BEELD</t>
+  </si>
+  <si>
+    <t>MUZISCHE VORMING - BEWEGING</t>
+  </si>
+  <si>
+    <t>MUZISCHE VORMING - DRAMA</t>
+  </si>
+  <si>
+    <t>MUZISCHE VORMING - MEDIA</t>
+  </si>
+  <si>
+    <t>MUZISCHE VORMING - MUZIEK</t>
+  </si>
+  <si>
+    <t>Wiskunde</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>De leerlingen brengen waardering op voor wiskunde als dimensie van menselijke inventiviteit.</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>De leerlingen ontwikkelen een kritische houding ten aanzien van allerlei cijfermateriaal, tabellen, berekeningen waarvan in hun omgeving bewust of onbewust, gebruik (misbruik) gemaakt wordt om mensen te informeren, te overtuigen, te misleiden …</t>
+  </si>
+  <si>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>De leerlingen ervaren dat bezig zijn met wiskunde een actief en een constructief proces is dat kan groeien en uitbreiden als gevolg van eigen denk- en leeractiviteiten; ze ontwikkelen bijgevolg de opvatting dat alle leerlingen wiskundige bekwaamheid kunnen verwerven die kan leiden naar studies en beroepen waarin wiskunde aan bod komt.</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>De leerlingen zijn bereid zichzelf vragen te stellen over hun aanpak voor, tijdens en na het oplossen van een wiskundig probleem en willen op basis hiervan hun aanpak bijsturen.</t>
+  </si>
+  <si>
+    <t>Wiskunde - Getallen</t>
+  </si>
+  <si>
+    <t>Wiskunde - Meetkunde</t>
+  </si>
+  <si>
+    <t>Wiskunde - Meten</t>
+  </si>
+  <si>
+    <t>Wiskunde - Strategieën en probleemoplossende vaardigheden</t>
+  </si>
+  <si>
+    <t>(below: existing onderwijsdoelen, linked to other subdomains than suggested in AHOVOKS data)</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +270,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +281,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -152,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -170,6 +341,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -476,11 +670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V258"/>
+  <dimension ref="A1:V252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A4"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -570,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
@@ -631,7 +825,7 @@
       </c>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
@@ -799,1546 +993,4138 @@
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-    </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-    </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="60" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="5"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
+    <row r="7" spans="1:22" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+    </row>
+    <row r="8" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V10" s="10"/>
+    </row>
+    <row r="11" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V12" s="10"/>
+    </row>
+    <row r="13" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V14" s="10"/>
+    </row>
+    <row r="15" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U15" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V16" s="10"/>
+    </row>
+    <row r="17" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V18" s="10"/>
+    </row>
+    <row r="19" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V20" s="10"/>
+    </row>
+    <row r="21" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V22" s="10"/>
+    </row>
+    <row r="23" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U24" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V24" s="10"/>
+    </row>
+    <row r="25" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S25" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U25" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U26" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V26" s="10"/>
+    </row>
+    <row r="27" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V28" s="10"/>
+    </row>
+    <row r="29" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U29" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V30" s="10"/>
+    </row>
+    <row r="31" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" s="10">
+        <v>38960</v>
+      </c>
+      <c r="V32" s="10"/>
+    </row>
+    <row r="33" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U33" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U34" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V34" s="10"/>
+    </row>
+    <row r="35" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U35" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V36" s="10"/>
+    </row>
+    <row r="37" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U37" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U38" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V38" s="10"/>
+    </row>
+    <row r="39" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U39" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V40" s="10"/>
+    </row>
+    <row r="41" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U41" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V41" s="10"/>
+    </row>
+    <row r="42" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M42" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S42" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V42" s="10"/>
+    </row>
+    <row r="43" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U43" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V43" s="10"/>
+    </row>
+    <row r="44" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U44" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V44" s="10"/>
+    </row>
+    <row r="45" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U45" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V45" s="10"/>
+    </row>
+    <row r="46" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U46" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V46" s="10"/>
+    </row>
+    <row r="47" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U47" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V47" s="10"/>
+    </row>
+    <row r="48" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U48" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V48" s="10"/>
+    </row>
+    <row r="49" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U49" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V49" s="10"/>
+    </row>
+    <row r="50" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S50" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U50" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V50" s="10"/>
+    </row>
+    <row r="51" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M51" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S51" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U51" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V51" s="10"/>
+    </row>
+    <row r="52" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U52" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V52" s="10"/>
+    </row>
+    <row r="53" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U53" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V53" s="10"/>
+    </row>
+    <row r="54" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N54" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U54" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V54" s="10"/>
+    </row>
+    <row r="55" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M55" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U55" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V55" s="10"/>
+    </row>
+    <row r="56" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U56" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V56" s="10"/>
+    </row>
+    <row r="57" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="S57" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U57" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V57" s="10"/>
+    </row>
+    <row r="58" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S58" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U58" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V58" s="10"/>
+    </row>
+    <row r="59" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S59" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U59" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V59" s="10"/>
+    </row>
+    <row r="60" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R60" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S60" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U60" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V60" s="10"/>
+    </row>
+    <row r="61" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R61" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S61" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U61" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V61" s="10"/>
+    </row>
+    <row r="62" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R62" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S62" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U62" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V62" s="10"/>
+    </row>
+    <row r="63" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S63" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U63" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V63" s="10"/>
+    </row>
+    <row r="64" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M64" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R64" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U64" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V64" s="10"/>
+    </row>
+    <row r="65" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M65" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="O65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S65" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U65" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V65" s="10"/>
+    </row>
+    <row r="66" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R66" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U66" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V66" s="10"/>
+    </row>
+    <row r="67" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M67" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R67" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S67" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U67" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V67" s="10"/>
+    </row>
+    <row r="68" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M68" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R68" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S68" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U68" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V68" s="10"/>
+    </row>
+    <row r="69" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M69" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R69" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U69" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V69" s="10"/>
+    </row>
+    <row r="70" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R70" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="S70" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U70" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V70" s="10"/>
+    </row>
+    <row r="71" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="R71" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="S71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U71" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V71" s="10"/>
+    </row>
+    <row r="72" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M72" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R72" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S72" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U72" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V72" s="10"/>
+    </row>
+    <row r="73" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="R73" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S73" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U73" s="10">
+        <v>34577</v>
+      </c>
+      <c r="V73" s="10"/>
     </row>
     <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B74" s="3"/>
@@ -6457,145 +9243,8 @@
       <c r="U252" s="5"/>
       <c r="V252" s="5"/>
     </row>
-    <row r="253" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="3"/>
-      <c r="K253" s="3"/>
-      <c r="L253" s="3"/>
-      <c r="M253" s="3"/>
-      <c r="N253" s="3"/>
-      <c r="O253" s="3"/>
-      <c r="P253" s="3"/>
-      <c r="Q253" s="4"/>
-      <c r="R253" s="3"/>
-      <c r="S253" s="3"/>
-      <c r="T253" s="3"/>
-      <c r="U253" s="5"/>
-      <c r="V253" s="5"/>
-    </row>
-    <row r="254" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B254" s="3"/>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="3"/>
-      <c r="K254" s="3"/>
-      <c r="L254" s="3"/>
-      <c r="M254" s="3"/>
-      <c r="N254" s="3"/>
-      <c r="O254" s="3"/>
-      <c r="P254" s="3"/>
-      <c r="Q254" s="4"/>
-      <c r="R254" s="3"/>
-      <c r="S254" s="3"/>
-      <c r="T254" s="3"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-    </row>
-    <row r="255" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B255" s="3"/>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
-      <c r="K255" s="3"/>
-      <c r="L255" s="3"/>
-      <c r="M255" s="3"/>
-      <c r="N255" s="3"/>
-      <c r="O255" s="3"/>
-      <c r="P255" s="3"/>
-      <c r="Q255" s="4"/>
-      <c r="R255" s="3"/>
-      <c r="S255" s="3"/>
-      <c r="T255" s="3"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-    </row>
-    <row r="256" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B256" s="3"/>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="3"/>
-      <c r="P256" s="3"/>
-      <c r="Q256" s="4"/>
-      <c r="R256" s="3"/>
-      <c r="S256" s="3"/>
-      <c r="T256" s="3"/>
-      <c r="U256" s="5"/>
-      <c r="V256" s="5"/>
-    </row>
-    <row r="257" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B257" s="3"/>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="3"/>
-      <c r="K257" s="3"/>
-      <c r="L257" s="3"/>
-      <c r="M257" s="3"/>
-      <c r="N257" s="3"/>
-      <c r="O257" s="3"/>
-      <c r="P257" s="3"/>
-      <c r="Q257" s="4"/>
-      <c r="R257" s="3"/>
-      <c r="S257" s="3"/>
-      <c r="T257" s="3"/>
-      <c r="U257" s="5"/>
-      <c r="V257" s="5"/>
-    </row>
-    <row r="258" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B258" s="3"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="3"/>
-      <c r="K258" s="3"/>
-      <c r="L258" s="3"/>
-      <c r="M258" s="3"/>
-      <c r="N258" s="3"/>
-      <c r="O258" s="3"/>
-      <c r="P258" s="3"/>
-      <c r="Q258" s="4"/>
-      <c r="R258" s="3"/>
-      <c r="S258" s="3"/>
-      <c r="T258" s="3"/>
-      <c r="U258" s="5"/>
-      <c r="V258" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>